--- a/LubanTmpl/Datas/ui_param.xlsx
+++ b/LubanTmpl/Datas/ui_param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE638AAA-F5A0-4B38-9C36-ED61B3A45327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AB86C-5AAD-4C1C-B2EB-6867E38B198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34170" yWindow="0" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="0" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <t>SceneChange</t>
   </si>
   <si>
-    <t>UI.Mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TopMost</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>Stack</t>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -541,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
     <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
@@ -603,9 +603,8 @@
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-      <c r="AC1"/>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -619,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
@@ -650,9 +649,8 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
-      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,9 +695,8 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
-      <c r="AC3"/>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -713,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -744,9 +741,8 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
-      <c r="AC4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
@@ -757,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -766,18 +762,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -786,18 +782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -806,18 +802,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>

--- a/LubanTmpl/Datas/ui_param.xlsx
+++ b/LubanTmpl/Datas/ui_param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13AB86C-5AAD-4C1C-B2EB-6867E38B198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9AACFF-6D14-46F6-824D-2F4B96FABF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="0" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29400" yWindow="660" windowWidth="28830" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -147,7 +147,19 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>mode</t>
+    <t>useBatch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否批处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -264,6 +276,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -544,13 +562,13 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
@@ -583,7 +601,9 @@
       <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1"/>
+      <c r="I1" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -621,7 +641,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
@@ -629,7 +649,9 @@
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -675,7 +697,9 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3"/>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -721,7 +745,9 @@
       <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -761,6 +787,9 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -781,6 +810,9 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -801,6 +833,9 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" s="8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -819,6 +854,9 @@
         <v>1</v>
       </c>
       <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
